--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA8AA2-2E3C-40CC-8EEE-15FD7BE64594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D47D85-422F-4A27-809C-E3CB480E3D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="310">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1045,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,6 +2891,9 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
+      <c r="Q5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2917,6 +2920,9 @@
       <c r="O6" t="s">
         <v>141</v>
       </c>
+      <c r="Q6" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2937,6 +2943,9 @@
       <c r="F7" t="s">
         <v>148</v>
       </c>
+      <c r="Q7" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2957,6 +2966,9 @@
       <c r="F8" t="s">
         <v>156</v>
       </c>
+      <c r="Q8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3029,6 +3041,9 @@
       <c r="F11" t="s">
         <v>172</v>
       </c>
+      <c r="Q11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3084,6 +3099,9 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
+      <c r="Q13" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3110,6 +3128,9 @@
       <c r="O14" t="s">
         <v>305</v>
       </c>
+      <c r="Q14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3136,6 +3157,9 @@
       <c r="O15" t="s">
         <v>302</v>
       </c>
+      <c r="Q15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3160,7 +3184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3179,8 +3203,11 @@
       <c r="F17" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3226,11 @@
       <c r="F18" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3219,8 +3249,11 @@
       <c r="F19" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3245,8 +3278,11 @@
       <c r="O20" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3265,8 +3301,11 @@
       <c r="F21" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -3285,8 +3324,11 @@
       <c r="F22" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -3304,6 +3346,9 @@
       </c>
       <c r="F23" t="s">
         <v>287</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3316,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,10 +3434,10 @@
         <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3403,10 +3448,10 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <v>5</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D47D85-422F-4A27-809C-E3CB480E3D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A281A3-E92E-4416-98C1-902245E2B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="313">
   <si>
     <t>Kategori1</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Cift_Kafa</t>
   </si>
   <si>
-    <t>Acici_Tipi</t>
-  </si>
-  <si>
     <t>Sac_Genislik</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>Acici_Tipi_opts</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -482,66 +476,18 @@
     <t>Otomatik Dönüş Sistemi</t>
   </si>
   <si>
-    <t>Tambur_opts</t>
-  </si>
-  <si>
-    <t>500 kg kapasiteli tambur</t>
-  </si>
-  <si>
-    <t>1250 kg kapasiteli tambur</t>
-  </si>
-  <si>
-    <t>2500 kg kapasiteli tambur</t>
-  </si>
-  <si>
-    <t>4000 kg kapasiteli tambur</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>Sac_genislik</t>
-  </si>
-  <si>
     <t>Rulo Genişliği</t>
   </si>
   <si>
-    <t>Sac_genislik_opts</t>
-  </si>
-  <si>
     <t>Elk_altyapi_harici</t>
   </si>
   <si>
     <t>Elk_altyapi_harici_opts</t>
   </si>
   <si>
-    <t>Sac_genislik_harici</t>
-  </si>
-  <si>
-    <t>Sac_genislik_harici_opts</t>
-  </si>
-  <si>
-    <t>Min_sac_genislik</t>
-  </si>
-  <si>
-    <t>Min_sac_genislik_opts</t>
-  </si>
-  <si>
-    <t>300 mm rulo genişliği</t>
-  </si>
-  <si>
-    <t>400 mm rulo genişliği</t>
-  </si>
-  <si>
-    <t>600 mm rulo genişliği</t>
-  </si>
-  <si>
-    <t>800 mm rulo genişliği</t>
-  </si>
-  <si>
-    <t>1000 mm rulo genişliği</t>
-  </si>
-  <si>
     <t>Diğer</t>
   </si>
   <si>
@@ -584,21 +530,6 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>1200 mm rulo dış çapı</t>
-  </si>
-  <si>
-    <t>1300 mm rulo dış çapı</t>
-  </si>
-  <si>
-    <t>1600 mm rulo dış çapı</t>
-  </si>
-  <si>
-    <t>1800 mm rulo dış çapı</t>
-  </si>
-  <si>
-    <t>2000 mm rulo dış çapı</t>
-  </si>
-  <si>
     <t>Minimum Sac Genişliği (Değer giriniz…)</t>
   </si>
   <si>
@@ -641,24 +572,9 @@
     <t>2P4</t>
   </si>
   <si>
-    <t>P2 Tipi Baskı Kolu</t>
-  </si>
-  <si>
     <t>Baskı Kolu Yok</t>
   </si>
   <si>
-    <t>P3 Tipi Baskı Kolu</t>
-  </si>
-  <si>
-    <t>P4 Tipi Baskı Kolu</t>
-  </si>
-  <si>
-    <t>2P3 Tipi Baskı Kolu</t>
-  </si>
-  <si>
-    <t>2P4 Tipi Baskı Kolu</t>
-  </si>
-  <si>
     <t>UB</t>
   </si>
   <si>
@@ -776,33 +692,6 @@
     <t>VRF</t>
   </si>
   <si>
-    <t>8 dev/dk</t>
-  </si>
-  <si>
-    <t>12 dev/dk</t>
-  </si>
-  <si>
-    <t>16 dev/dk</t>
-  </si>
-  <si>
-    <t>24 dev/dk</t>
-  </si>
-  <si>
-    <t>32 dev/dk</t>
-  </si>
-  <si>
-    <t>40 dev/dk</t>
-  </si>
-  <si>
-    <t>48 dev/dk</t>
-  </si>
-  <si>
-    <t>56 dev/dk</t>
-  </si>
-  <si>
-    <t>64 dev/dk</t>
-  </si>
-  <si>
     <t>Tamburda Hiç Tahrik Yok</t>
   </si>
   <si>
@@ -842,12 +731,6 @@
     <t>4 ton taşıma kapasiteli yükleme arabası</t>
   </si>
   <si>
-    <t>300 mm dikey strok</t>
-  </si>
-  <si>
-    <t>500 mm dikey strok</t>
-  </si>
-  <si>
     <t>Hidrolik_Unite_opts</t>
   </si>
   <si>
@@ -966,6 +849,132 @@
   </si>
   <si>
     <t>checkboxes</t>
+  </si>
+  <si>
+    <t>(500 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(1250 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(2500 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(4000 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(300 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(400 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(600 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(800 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(1000 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(1200 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(1300 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(1600 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(1800 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(2000 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(P2 Tipi Baskı Kolu)</t>
+  </si>
+  <si>
+    <t>(P3 Tipi Baskı Kolu)</t>
+  </si>
+  <si>
+    <t>(P4 Tipi Baskı Kolu)</t>
+  </si>
+  <si>
+    <t>(2P3 Tipi Baskı Kolu)</t>
+  </si>
+  <si>
+    <t>(2P4 Tipi Baskı Kolu)</t>
+  </si>
+  <si>
+    <t>(8 dev/dk)</t>
+  </si>
+  <si>
+    <t>(12 dev/dk)</t>
+  </si>
+  <si>
+    <t>(16 dev/dk)</t>
+  </si>
+  <si>
+    <t>(24 dev/dk)</t>
+  </si>
+  <si>
+    <t>(32 dev/dk)</t>
+  </si>
+  <si>
+    <t>(40 dev/dk)</t>
+  </si>
+  <si>
+    <t>(48 dev/dk)</t>
+  </si>
+  <si>
+    <t>(56 dev/dk)</t>
+  </si>
+  <si>
+    <t>(64 dev/dk)</t>
+  </si>
+  <si>
+    <t>(300 mm dikey strok)</t>
+  </si>
+  <si>
+    <t>(500 mm dikey strok)</t>
+  </si>
+  <si>
+    <t>Acici_Tipi_CMC</t>
+  </si>
+  <si>
+    <t>Tambur_CMC</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMC</t>
+  </si>
+  <si>
+    <t>Acici_Tipi__CMC_opts</t>
+  </si>
+  <si>
+    <t>Tambur_CMC_opts</t>
+  </si>
+  <si>
+    <t>Sac_genislik_CMC</t>
+  </si>
+  <si>
+    <t>Sac_genislik_harici_CMC</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik_CMC</t>
+  </si>
+  <si>
+    <t>Sac_genislik_CMC_opts</t>
+  </si>
+  <si>
+    <t>Sac_genislik_harici_CMC_opts</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik_CMC_opts</t>
+  </si>
+  <si>
+    <t>Acici_Tipi_CMC_opts</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1834,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1852,7 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1882,7 +1891,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1899,10 +1908,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1939,10 +1948,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1959,10 +1968,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1979,10 +1988,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1999,10 +2008,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2039,10 +2048,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2079,10 +2088,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2099,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
@@ -2119,10 +2128,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2139,7 +2148,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -2162,7 +2171,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2179,10 +2188,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2202,7 +2211,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2219,10 +2228,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2239,10 +2248,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2259,10 +2268,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2279,10 +2288,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -2299,10 +2308,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2319,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>85</v>
@@ -2342,7 +2351,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2359,10 +2368,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2379,10 +2388,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2399,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2419,10 +2428,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2439,10 +2448,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
         <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2459,7 +2468,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>85</v>
@@ -2731,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,22 +2791,22 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2805,22 +2814,22 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2828,48 +2837,48 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="Q4" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2877,22 +2886,22 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q5" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2900,181 +2909,181 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="Q7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="Q8" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="N9" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="O9" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="K10" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q11" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3082,83 +3091,83 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="Q13" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="Q14" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="Q15" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3169,42 +3178,42 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="Q16" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="Q17" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3215,140 +3224,140 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="Q18" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="Q19" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="Q20" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="Q21" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="Q22" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="Q23" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3371,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,13 +3398,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3403,13 +3412,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3417,13 +3426,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3431,13 +3440,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3445,13 +3454,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3459,7 +3468,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3467,13 +3476,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3481,13 +3490,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3495,13 +3504,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3509,13 +3518,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3523,13 +3532,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3537,13 +3546,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3551,13 +3560,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3565,13 +3574,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3579,13 +3588,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3593,13 +3602,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -3607,13 +3616,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3621,13 +3630,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3635,13 +3644,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3649,13 +3658,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3663,13 +3672,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3677,13 +3686,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3691,7 +3700,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3699,7 +3708,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3707,13 +3716,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3721,13 +3730,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3735,13 +3744,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3749,13 +3758,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3763,13 +3772,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3777,13 +3786,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3791,7 +3800,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3799,13 +3808,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3813,13 +3822,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3827,13 +3836,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3841,13 +3850,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3855,13 +3864,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3869,13 +3878,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3883,13 +3892,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3897,13 +3906,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3911,13 +3920,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3925,13 +3934,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3939,13 +3948,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3953,13 +3962,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3967,13 +3976,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3981,13 +3990,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -3995,13 +4004,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4009,13 +4018,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -4023,13 +4032,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -4037,13 +4046,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -4051,13 +4060,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -4065,13 +4074,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4079,13 +4088,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4093,13 +4102,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4107,13 +4116,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4121,13 +4130,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -4135,13 +4144,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4149,13 +4158,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -4163,13 +4172,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -4177,13 +4186,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -4191,13 +4200,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4205,13 +4214,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4219,13 +4228,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4233,13 +4242,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4247,13 +4256,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4261,13 +4270,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4275,13 +4284,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4289,13 +4298,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4303,13 +4312,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4317,13 +4326,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4331,13 +4340,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4345,13 +4354,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4359,13 +4368,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4373,13 +4382,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4387,13 +4396,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4401,13 +4410,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4415,13 +4424,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B77" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4429,13 +4438,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B78" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4443,13 +4452,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="D79">
         <v>4</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A281A3-E92E-4416-98C1-902245E2B409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F98FD0-18CF-4D82-9D15-D03D11D19FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="316">
   <si>
     <t>Kategori1</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Çift Kafa</t>
   </si>
   <si>
-    <t>Tambur</t>
-  </si>
-  <si>
     <t>Tahrik</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>Yükleme_Arabasi</t>
   </si>
   <si>
-    <t>Hidrolik_Unite</t>
-  </si>
-  <si>
     <t>Sensor</t>
   </si>
   <si>
@@ -533,9 +527,6 @@
     <t>Minimum Sac Genişliği (Değer giriniz…)</t>
   </si>
   <si>
-    <t>Acici_Baski_Tipi_opts</t>
-  </si>
-  <si>
     <t>Ust_Baski_Motor_Tipi</t>
   </si>
   <si>
@@ -701,27 +692,15 @@
     <t>Rulo Merkezleme</t>
   </si>
   <si>
-    <t>Merkezleme_opts</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
     <t>Manuel Dayama Ayağı</t>
   </si>
   <si>
-    <t>Yükleme_Arabasi_opts</t>
-  </si>
-  <si>
-    <t>Yükleme_Arabasi_Strok</t>
-  </si>
-  <si>
     <t>Yükleme Arabası Z Ekseni Stroku</t>
   </si>
   <si>
-    <t>Yükleme_Arabasi_Strok_opts</t>
-  </si>
-  <si>
     <t>YA-4T</t>
   </si>
   <si>
@@ -731,9 +710,6 @@
     <t>4 ton taşıma kapasiteli yükleme arabası</t>
   </si>
   <si>
-    <t>Hidrolik_Unite_opts</t>
-  </si>
-  <si>
     <t>HGU-40/1</t>
   </si>
   <si>
@@ -975,6 +951,39 @@
   </si>
   <si>
     <t>Acici_Tipi_CMC_opts</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Tipi_CMC</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Tipi_CMC_opts</t>
+  </si>
+  <si>
+    <t>Merkezleme_CMC</t>
+  </si>
+  <si>
+    <t>Merkezleme_CMC_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_CMC</t>
+  </si>
+  <si>
+    <t>Hidrolik_Unite_CMC</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_CMC</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_CMC_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_CMC_opts</t>
+  </si>
+  <si>
+    <t>Hidrolik_Unite_CMC_opts</t>
+  </si>
+  <si>
+    <t>Tambur_YTY</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1371,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1844,7 +1853,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1900,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1908,10 +1917,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1928,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -1948,10 +1957,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1968,10 +1977,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1988,10 +1997,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2008,10 +2017,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2028,10 +2037,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2048,10 +2057,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2068,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2088,10 +2097,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2108,10 +2117,10 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2128,10 +2137,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2148,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -2171,7 +2180,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2188,10 +2197,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2208,10 +2217,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2228,10 +2237,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2248,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2268,10 +2277,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2288,10 +2297,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -2308,10 +2317,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2328,10 +2337,10 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -2351,7 +2360,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2368,10 +2377,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2388,10 +2397,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2408,10 +2417,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2428,10 +2437,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2448,10 +2457,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2468,10 +2477,10 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -2740,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,22 +2800,22 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2814,22 +2823,22 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2837,253 +2846,253 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N9" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3091,273 +3100,273 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="Q13" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q14" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="Q18" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="Q19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="Q21" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q22" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3370,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,13 +3407,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3412,13 +3421,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3426,13 +3435,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3440,13 +3449,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3454,13 +3463,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>152</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3468,7 +3477,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3476,13 +3485,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3490,13 +3499,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
         <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3504,13 +3513,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3518,13 +3527,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3532,13 +3541,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3546,13 +3555,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3560,13 +3569,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3574,13 +3583,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3588,13 +3597,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3602,13 +3611,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -3616,13 +3625,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3630,13 +3639,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3644,13 +3653,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3658,13 +3667,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3672,13 +3681,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3686,13 +3695,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3700,7 +3709,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3708,7 +3717,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3716,13 +3725,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3730,13 +3739,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3744,13 +3753,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3758,13 +3767,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3772,13 +3781,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3786,13 +3795,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3800,7 +3809,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3808,13 +3817,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3822,13 +3831,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3836,13 +3845,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3850,13 +3859,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3864,13 +3873,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3878,13 +3887,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3892,13 +3901,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3906,13 +3915,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3920,13 +3929,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3934,13 +3943,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3948,13 +3957,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3962,13 +3971,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3976,13 +3985,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3990,13 +3999,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4004,13 +4013,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" t="s">
         <v>188</v>
       </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4018,13 +4027,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -4032,13 +4041,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -4046,13 +4055,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -4060,13 +4069,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -4074,13 +4083,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4088,13 +4097,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4102,13 +4111,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4116,13 +4125,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
         <v>207</v>
       </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4130,13 +4139,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -4144,13 +4153,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4158,13 +4167,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -4172,13 +4181,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -4186,13 +4195,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -4200,13 +4209,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4214,13 +4223,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4228,13 +4237,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4242,13 +4251,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4256,13 +4265,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4270,13 +4279,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4284,13 +4293,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4298,13 +4307,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4312,13 +4321,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4326,13 +4335,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4340,13 +4349,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4354,13 +4363,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4368,13 +4377,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
         <v>237</v>
-      </c>
-      <c r="B73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C73" t="s">
-        <v>245</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4382,13 +4391,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4396,13 +4405,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4410,13 +4419,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4424,13 +4433,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4438,13 +4447,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4452,13 +4461,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
         <v>248</v>
-      </c>
-      <c r="B79" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" t="s">
-        <v>256</v>
       </c>
       <c r="D79">
         <v>4</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F98FD0-18CF-4D82-9D15-D03D11D19FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F34FDD-4AF1-4DFC-9D71-556A3C5DD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="315">
   <si>
     <t>Kategori1</t>
   </si>
@@ -924,9 +924,6 @@
   </si>
   <si>
     <t>Sac_Genislik_CMC</t>
-  </si>
-  <si>
-    <t>Acici_Tipi__CMC_opts</t>
   </si>
   <si>
     <t>Tambur_CMC_opts</t>
@@ -1852,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2014,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>98</v>
@@ -2077,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -2097,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
         <v>100</v>
@@ -2117,7 +2114,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -2217,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -2750,13 +2747,13 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
@@ -2884,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q4" t="s">
         <v>261</v>
@@ -2959,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q7" t="s">
         <v>261</v>
@@ -2970,7 +2967,7 @@
         <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
         <v>145</v>
@@ -2982,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="s">
         <v>261</v>
@@ -2993,7 +2990,7 @@
         <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>155</v>
@@ -3005,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O9" t="s">
         <v>148</v>
@@ -3019,7 +3016,7 @@
         <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>162</v>
@@ -3031,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K10" t="s">
         <v>256</v>
@@ -3103,7 +3100,7 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -3115,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q13" t="s">
         <v>261</v>
@@ -3227,10 +3224,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
         <v>217</v>
@@ -3242,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q18" t="s">
         <v>261</v>
@@ -3250,10 +3247,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -3265,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q19" t="s">
         <v>261</v>
@@ -3273,10 +3270,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>220</v>
@@ -3288,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N20" t="s">
         <v>90</v>
@@ -3302,10 +3299,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
@@ -3317,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q21" t="s">
         <v>261</v>
@@ -3379,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
@@ -3499,7 +3496,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14">
         <v>500</v>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15">
         <v>1250</v>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16">
         <v>2500</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>4000</v>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B20">
         <v>600</v>
@@ -3667,7 +3664,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>800</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
         <v>148</v>
@@ -3709,7 +3706,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
         <v>169</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
         <v>170</v>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s">
         <v>171</v>
@@ -3859,7 +3856,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
         <v>172</v>
@@ -3873,7 +3870,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
         <v>173</v>
@@ -3887,7 +3884,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
         <v>174</v>
@@ -4237,7 +4234,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
         <v>218</v>
@@ -4251,7 +4248,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s">
         <v>221</v>
@@ -4279,7 +4276,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66">
         <v>300</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B67">
         <v>500</v>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
         <v>125</v>
@@ -4321,7 +4318,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
         <v>224</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" t="s">
         <v>225</v>
